--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Google Drive\2018.WRI-EPS2\0.Documentos trabajo modelo\eps-1.3.2-us-wipG\InputData\trans\BMRESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BMRESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="BMRESP-passenger" sheetId="2" r:id="rId2"/>
     <sheet name="BMRESP-freight" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>BMRESP BAU Minimum Required EV Sales Percentage</t>
   </si>
@@ -56,7 +56,10 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>in Mexico for any vehicle type.</t>
+    <t>in the United States for any vehicle type.</t>
+  </si>
+  <si>
+    <t>Sales Percentage (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -100,9 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -196,23 +202,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -248,23 +237,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,18 +415,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -462,17 +432,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -492,12 +462,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B1">
         <v>2016</v>
       </c>
@@ -604,7 +577,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -714,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -824,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -934,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1044,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1154,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1278,12 +1251,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B1">
         <v>2016</v>
       </c>
@@ -1390,7 +1366,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1500,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1720,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1830,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1940,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>

--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BMRESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/trans/BMRESP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FB126D-722A-DE43-A57A-7A4E2B3BC896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="23955" windowHeight="12090"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="23960" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -56,16 +57,16 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>in the United States for any vehicle type.</t>
+    <t>Sales Percentage (dimensionless)</t>
   </si>
   <si>
-    <t>Sales Percentage (dimensionless)</t>
+    <t>in the Mexico for any vehicle type.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,6 +203,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -237,6 +255,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,19 +447,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -432,19 +469,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -454,7 +491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -462,14 +499,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.265625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -577,7 +614,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -687,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -797,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -907,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1017,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1127,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1243,7 +1280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1251,14 +1288,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.265625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -1366,7 +1403,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1586,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1696,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1916,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
